--- a/assets/directory-2019-08-12.xlsx
+++ b/assets/directory-2019-08-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin02\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pschloss/Documents/websites/polypay.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284C85A0-A83A-454E-A7C8-218C16808F0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFE22D-7BBE-6A45-90E6-73411902C6DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer List" sheetId="4" r:id="rId1"/>
@@ -901,9 +901,6 @@
     <t>Lane’s End Farm</t>
   </si>
   <si>
-    <t xml:space="preserve">12211 W Rt 973, </t>
-  </si>
-  <si>
     <t>Jersey Shore</t>
   </si>
   <si>
@@ -1547,9 +1544,6 @@
   </si>
   <si>
     <t>Hanssen</t>
-  </si>
-  <si>
-    <t>James &amp; Rhondi</t>
   </si>
   <si>
     <t>Hanssen Polypays</t>
@@ -2921,12 +2915,18 @@
   <si>
     <t>pauljsheep@gmail.com</t>
   </si>
+  <si>
+    <t>James &amp; Rondi</t>
+  </si>
+  <si>
+    <t>12211 W Rt 973</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3327,16 +3327,6 @@
   <dxfs count="35">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3502,6 +3492,16 @@
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -4569,7 +4569,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="A1:O117" totalsRowShown="0" headerRowDxfId="16" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="A1:O117" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:O107">
     <sortCondition ref="A2:A107"/>
@@ -4578,21 +4578,21 @@
     <sortCondition ref="C2:C107"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member #" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Active/Inactive" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dues Year Paid" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Last Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="First Names" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Farm Name" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Street Address" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="City" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="State " dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Postal Code" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone #1" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Phone #2" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Fax Number" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="E-Mail Address" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Web Site" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member #" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Active/Inactive" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dues Year Paid" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Last Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="First Names" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Farm Name" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Street Address" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="City" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="State " dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Postal Code" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone #1" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Phone #2" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Fax Number" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="E-Mail Address" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Web Site" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4925,30 +4925,30 @@
   </sheetPr>
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="22.625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="20.625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="22.6640625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="20.6640625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.6640625" style="4" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="5" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="6.625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="13.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="27.625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.1640625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="27.6640625" style="4" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="24" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="4"/>
+    <col min="16" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="40.5" customHeight="1">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>105</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>132</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>212</v>
       </c>
@@ -5084,34 +5084,34 @@
         <v>2019</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>236</v>
       </c>
       <c r="J4" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="N4" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>245</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>332</v>
       </c>
@@ -5159,34 +5159,34 @@
         <v>2019</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="H6" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>391</v>
       </c>
@@ -5194,34 +5194,34 @@
         <v>2019</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="N7" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>392</v>
       </c>
@@ -5229,34 +5229,34 @@
         <v>2019</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="N8" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>544</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>553</v>
       </c>
@@ -5329,11 +5329,11 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="O10" s="27"/>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>585</v>
       </c>
@@ -5341,34 +5341,34 @@
         <v>2019</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="I11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>499</v>
-      </c>
       <c r="N11" s="28" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>626</v>
       </c>
@@ -5377,14 +5377,14 @@
         <v>2019</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>191</v>
@@ -5393,21 +5393,21 @@
         <v>169</v>
       </c>
       <c r="J12" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="30" t="s">
         <v>478</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>479</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>628</v>
       </c>
@@ -5415,31 +5415,31 @@
         <v>2019</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="N13" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>651</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>702</v>
       </c>
@@ -5491,25 +5491,25 @@
         <v>278</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>275</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>282</v>
-      </c>
       <c r="N15" s="21" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>712</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>757</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>799</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>149</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>150</v>
@@ -5626,7 +5626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>825</v>
       </c>
@@ -5663,10 +5663,10 @@
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="28" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>896</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>238</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>239</v>
@@ -5698,7 +5698,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>908</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1228</v>
       </c>
@@ -5744,38 +5744,38 @@
         <v>2019</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>275</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>623</v>
-      </c>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>1451</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>155</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>155</v>
@@ -5805,15 +5805,15 @@
         <v>40383</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="45" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1452</v>
       </c>
@@ -5821,34 +5821,34 @@
         <v>2019</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="H24" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="N24" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="N24" s="31" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1461</v>
       </c>
@@ -5856,34 +5856,34 @@
         <v>2019</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>286</v>
-      </c>
       <c r="G25" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>191</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="N25" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1481</v>
       </c>
@@ -5891,40 +5891,40 @@
         <v>2019</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="H26" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="N26" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15">
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>1499</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>139</v>
@@ -5936,7 +5936,7 @@
         <v>141</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>142</v>
@@ -5961,7 +5961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1631</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>1647</v>
       </c>
@@ -6008,34 +6008,34 @@
         <v>2018</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>169</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="N29" s="21" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1687</v>
       </c>
@@ -6043,37 +6043,37 @@
         <v>2019</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F30" s="16" t="s">
+      <c r="G30" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="J30" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="K30" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="K30" s="16" t="s">
+      <c r="L30" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N30" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>1746</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1765</v>
       </c>
@@ -6122,19 +6122,19 @@
         <v>2019</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1766</v>
       </c>
@@ -6142,31 +6142,31 @@
         <v>2019</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>274</v>
       </c>
       <c r="G33" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="N33" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="N33" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1780</v>
       </c>
@@ -6205,10 +6205,10 @@
         <v>110</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="39" customFormat="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1889</v>
       </c>
@@ -6217,39 +6217,39 @@
         <v>2019</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>1940</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>135</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>136</v>
@@ -6287,7 +6287,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1964</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>194</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>195</v>
@@ -6328,7 +6328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2048</v>
       </c>
@@ -6360,10 +6360,10 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="28" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>2049</v>
       </c>
@@ -6372,19 +6372,19 @@
         <v>2019</v>
       </c>
       <c r="D39" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="G39" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>633</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>122</v>
@@ -6393,15 +6393,15 @@
         <v>46167</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="28" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2050</v>
       </c>
@@ -6409,31 +6409,31 @@
         <v>2019</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2070</v>
       </c>
@@ -6441,37 +6441,37 @@
         <v>2019</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="H41" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J41" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="K41" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="L41" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="L41" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="N41" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>2080</v>
       </c>
@@ -6480,23 +6480,23 @@
         <v>2019</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>640</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>236</v>
       </c>
       <c r="J42" s="30" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="30"/>
@@ -6504,7 +6504,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2152</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2159</v>
       </c>
@@ -6550,10 +6550,10 @@
         <v>2019</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>229</v>
@@ -6580,7 +6580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2169</v>
       </c>
@@ -6588,34 +6588,34 @@
         <v>2019</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="N45" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="N45" s="21" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2187</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2193</v>
       </c>
@@ -6658,34 +6658,34 @@
         <v>2019</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="H47" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J47" s="5" t="s">
+      <c r="K47" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="N47" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="N47" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15">
+    </row>
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>2203</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>180</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>181</v>
@@ -6725,7 +6725,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2214</v>
       </c>
@@ -6733,35 +6733,35 @@
         <v>2019</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="M49" s="33"/>
       <c r="N49" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2228</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2242</v>
       </c>
@@ -6804,31 +6804,31 @@
         <v>2019</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="N51" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>2247</v>
       </c>
@@ -6837,14 +6837,14 @@
         <v>2019</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>274</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>261</v>
@@ -6856,15 +6856,15 @@
         <v>44691</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2252</v>
       </c>
@@ -6872,32 +6872,32 @@
         <v>2019</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>164</v>
       </c>
       <c r="J53" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="M53" s="34"/>
       <c r="N53" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>2254</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>187</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>188</v>
@@ -6935,7 +6935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2280</v>
       </c>
@@ -6943,34 +6943,34 @@
         <v>2019</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="N55" s="21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2327</v>
       </c>
@@ -6978,31 +6978,31 @@
         <v>2019</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="H56" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J56" s="5" t="s">
+      <c r="K56" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="N56" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="N56" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2342</v>
       </c>
@@ -7010,31 +7010,31 @@
         <v>2019</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="G57" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="H57" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="K57" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="N57" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="N57" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2360</v>
       </c>
@@ -7042,34 +7042,34 @@
         <v>2019</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>164</v>
       </c>
       <c r="J58" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N58" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="N58" s="21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2362</v>
       </c>
@@ -7077,34 +7077,34 @@
         <v>2019</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J59" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="N59" s="21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2396</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2398</v>
       </c>
@@ -7147,34 +7147,34 @@
         <v>2019</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J61" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="N61" s="21" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2401</v>
       </c>
@@ -7182,13 +7182,13 @@
         <v>2019</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>87</v>
@@ -7197,7 +7197,7 @@
         <v>80</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>88</v>
@@ -7206,7 +7206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2424</v>
       </c>
@@ -7214,13 +7214,13 @@
         <v>2019</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>263</v>
@@ -7241,7 +7241,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2432</v>
       </c>
@@ -7249,31 +7249,31 @@
         <v>2019</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>205</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J64" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="N64" s="21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2458</v>
       </c>
@@ -7281,34 +7281,34 @@
         <v>2019</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J65" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="N65" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2463</v>
       </c>
@@ -7316,35 +7316,35 @@
         <v>2019</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M66" s="35"/>
       <c r="N66" s="35" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2501</v>
       </c>
@@ -7352,34 +7352,34 @@
         <v>2019</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J67" s="5" t="s">
+      <c r="K67" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="L67" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="N67" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="N67" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2502</v>
       </c>
@@ -7387,34 +7387,34 @@
         <v>2019</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="J68" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="N68" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="N68" s="21" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2531</v>
       </c>
@@ -7446,10 +7446,10 @@
         <v>66</v>
       </c>
       <c r="N69" s="21" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2542</v>
       </c>
@@ -7457,37 +7457,37 @@
         <v>2019</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J70" s="5" t="s">
+      <c r="K70" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="N70" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="O70" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="O70" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2553</v>
       </c>
@@ -7495,31 +7495,31 @@
         <v>2018</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J71" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N71" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="N71" s="21" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2556</v>
       </c>
@@ -7527,34 +7527,34 @@
         <v>2018</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J72" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="N72" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="N72" s="21" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2568</v>
       </c>
@@ -7562,31 +7562,31 @@
         <v>2019</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J73" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="N73" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="N73" s="21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2570</v>
       </c>
@@ -7594,34 +7594,34 @@
         <v>2019</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J74" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="N74" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="N74" s="21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2571</v>
       </c>
@@ -7629,34 +7629,34 @@
         <v>2018</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="K75" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="N75" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="N75" s="21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2572</v>
       </c>
@@ -7664,34 +7664,34 @@
         <v>2018</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J76" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2576</v>
       </c>
@@ -7699,34 +7699,34 @@
         <v>2018</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J77" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="N77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="K77" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2593</v>
       </c>
@@ -7734,31 +7734,31 @@
         <v>2018</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="I78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J78" s="5" t="s">
+      <c r="N78" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="N78" s="21" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2599</v>
       </c>
@@ -7766,31 +7766,31 @@
         <v>2019</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J79" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="N79" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2603</v>
       </c>
@@ -7798,34 +7798,34 @@
         <v>2019</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>697</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J80" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="N80" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="N80" s="21" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>2610</v>
       </c>
@@ -7833,31 +7833,31 @@
         <v>2019</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>228</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N81" s="44" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>2616</v>
       </c>
@@ -7865,31 +7865,31 @@
         <v>2018</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>274</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J82" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="N82" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="N82" s="21" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>2619</v>
       </c>
@@ -7897,28 +7897,28 @@
         <v>2018</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>2628</v>
       </c>
@@ -7926,31 +7926,31 @@
         <v>2019</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>240</v>
       </c>
       <c r="J84" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="N84" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="N84" s="21" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>2647</v>
       </c>
@@ -7958,34 +7958,34 @@
         <v>2019</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J85" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="N85" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="N85" s="21" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>2651</v>
       </c>
@@ -7993,25 +7993,25 @@
         <v>2018</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2662</v>
       </c>
@@ -8019,34 +8019,34 @@
         <v>2019</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>275</v>
       </c>
       <c r="J87" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="N87" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="N87" s="21" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>2663</v>
       </c>
@@ -8054,31 +8054,31 @@
         <v>2018</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="H88" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="J88" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J88" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="K88" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N88" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>2665</v>
       </c>
@@ -8086,31 +8086,31 @@
         <v>2019</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>666</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>2709</v>
       </c>
@@ -8118,34 +8118,34 @@
         <v>2019</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J90" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="N90" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="N90" s="21" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>2733</v>
       </c>
@@ -8153,34 +8153,34 @@
         <v>2018</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="I91" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="I91" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J91" s="5" t="s">
+      <c r="N91" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="N91" s="21" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>2736</v>
       </c>
@@ -8188,31 +8188,31 @@
         <v>2019</v>
       </c>
       <c r="D92" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>164</v>
       </c>
       <c r="J92" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="N92" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="N92" s="21" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>2738</v>
       </c>
@@ -8220,31 +8220,31 @@
         <v>2018</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J93" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="N93" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="N93" s="21" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>2740</v>
       </c>
@@ -8252,34 +8252,34 @@
         <v>2019</v>
       </c>
       <c r="D94" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="G94" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="J94" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="K94" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="N94" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="N94" s="21" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>2744</v>
       </c>
@@ -8287,25 +8287,25 @@
         <v>2019</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>693</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>2745</v>
       </c>
@@ -8313,28 +8313,28 @@
         <v>2019</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="H96" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>2747</v>
       </c>
@@ -8342,31 +8342,31 @@
         <v>2018</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H97" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="J97" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="K97" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="N97" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="N97" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>2748</v>
       </c>
@@ -8374,31 +8374,31 @@
         <v>2019</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>726</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>728</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>236</v>
       </c>
       <c r="J98" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="N98" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="K98" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="N98" s="21" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>2749</v>
       </c>
@@ -8406,25 +8406,25 @@
         <v>2019</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>2777</v>
       </c>
@@ -8433,32 +8433,32 @@
         <v>2019</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J100" s="38" t="s">
+        <v>815</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="N100" s="21" t="s">
         <v>817</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="N100" s="21" t="s">
-        <v>819</v>
-      </c>
       <c r="O100" s="36"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>2781</v>
       </c>
@@ -8466,34 +8466,34 @@
         <v>2019</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N101" s="21" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>2797</v>
       </c>
@@ -8501,31 +8501,31 @@
         <v>2019</v>
       </c>
       <c r="D102" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>739</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>240</v>
       </c>
       <c r="J102" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="N102" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="N102" s="21" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>2798</v>
       </c>
@@ -8533,25 +8533,25 @@
         <v>2019</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>2803</v>
       </c>
@@ -8559,16 +8559,16 @@
         <v>2019</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>174</v>
@@ -8577,13 +8577,13 @@
         <v>169</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>2817</v>
       </c>
@@ -8591,29 +8591,29 @@
         <v>2019</v>
       </c>
       <c r="D105" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>793</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>795</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="N105" s="21"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>2819</v>
       </c>
@@ -8621,31 +8621,31 @@
         <v>2019</v>
       </c>
       <c r="D106" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="I106" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="K106" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J106" s="5" t="s">
+      <c r="N106" s="21" t="s">
         <v>802</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="N106" s="21" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" s="14" customFormat="1">
+    </row>
+    <row r="107" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>2821</v>
       </c>
@@ -8654,33 +8654,33 @@
         <v>2019</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="K107" s="4" t="s">
         <v>810</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>2219</v>
       </c>
@@ -8689,32 +8689,32 @@
         <v>2019</v>
       </c>
       <c r="D108" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>834</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J108" s="38" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="O108" s="36"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>2801</v>
       </c>
@@ -8723,37 +8723,37 @@
         <v>2019</v>
       </c>
       <c r="D109" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="F109" s="14" t="s">
         <v>845</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="G109" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="H109" s="14" t="s">
         <v>847</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>849</v>
       </c>
       <c r="I109" s="14" t="s">
         <v>164</v>
       </c>
       <c r="J109" s="49" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L109" s="43"/>
       <c r="M109" s="43"/>
       <c r="N109" s="44" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="O109" s="36"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>2828</v>
       </c>
@@ -8762,33 +8762,33 @@
         <v>2019</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I110" s="14" t="s">
         <v>169</v>
       </c>
       <c r="J110" s="49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L110" s="43"/>
       <c r="M110" s="43"/>
       <c r="N110" s="14"/>
       <c r="O110" s="36"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>2829</v>
       </c>
@@ -8797,33 +8797,33 @@
         <v>2019</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I111" s="14" t="s">
         <v>169</v>
       </c>
       <c r="J111" s="49" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L111" s="43"/>
       <c r="M111" s="43"/>
       <c r="N111" s="14"/>
       <c r="O111" s="36"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>2831</v>
       </c>
@@ -8832,35 +8832,35 @@
         <v>2019</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="J112" s="49" t="s">
         <v>866</v>
       </c>
-      <c r="H112" s="14" t="s">
+      <c r="K112" s="14" t="s">
         <v>867</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="J112" s="49" t="s">
-        <v>868</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>869</v>
       </c>
       <c r="L112" s="43"/>
       <c r="M112" s="43"/>
       <c r="N112" s="44" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="O112" s="36"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>2832</v>
       </c>
@@ -8869,35 +8869,35 @@
         <v>2019</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="J113" s="49" t="s">
         <v>873</v>
       </c>
-      <c r="H113" s="14" t="s">
+      <c r="K113" s="14" t="s">
         <v>874</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="J113" s="49" t="s">
-        <v>875</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>876</v>
       </c>
       <c r="L113" s="43"/>
       <c r="M113" s="43"/>
       <c r="N113" s="44" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="O113" s="36"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>2833</v>
       </c>
@@ -8906,33 +8906,33 @@
         <v>2019</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I114" s="14" t="s">
         <v>72</v>
       </c>
       <c r="J114" s="49" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="L114" s="43"/>
       <c r="M114" s="43"/>
       <c r="N114" s="14"/>
       <c r="O114" s="36"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>2834</v>
       </c>
@@ -8941,23 +8941,23 @@
         <v>2019</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>275</v>
       </c>
       <c r="J115" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K115" s="14"/>
       <c r="L115" s="43"/>
@@ -8965,7 +8965,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="36"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>2835</v>
       </c>
@@ -8974,10 +8974,10 @@
         <v>2019</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>62</v>
@@ -8995,16 +8995,16 @@
         <v>65</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L116" s="43"/>
       <c r="M116" s="43"/>
       <c r="N116" s="44" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="O116" s="36"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>2836</v>
       </c>
@@ -9013,37 +9013,37 @@
         <v>2019</v>
       </c>
       <c r="D117" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="F117" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="G117" s="14" t="s">
         <v>894</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="H117" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="I117" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="H117" s="14" t="s">
+      <c r="J117" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="I117" s="14" t="s">
+      <c r="K117" s="14" t="s">
         <v>898</v>
-      </c>
-      <c r="J117" s="49" t="s">
-        <v>899</v>
-      </c>
-      <c r="K117" s="14" t="s">
-        <v>900</v>
       </c>
       <c r="L117" s="43"/>
       <c r="M117" s="43"/>
       <c r="N117" s="44" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O117" s="36"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D125" s="13">
         <v>43408</v>
       </c>
@@ -9180,21 +9180,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
